--- a/数据整理/stocks/港股/01398-工商银行.xlsx
+++ b/数据整理/stocks/港股/01398-工商银行.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3975,4 +3976,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>52</v>
+      </c>
+      <c r="D3" t="n">
+        <v>35.41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01398-工商银行.xlsx
+++ b/数据整理/stocks/港股/01398-工商银行.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3984,7 +3985,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3995,17 +3996,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4015,14 +4036,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>38</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.57</v>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达恒生国企(QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9076</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -4031,13 +4074,1485 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1595</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8582</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6283</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3923</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3462</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2499</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2002</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1958</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008407</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1421</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1143</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159712</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006778</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发恒生中国企业精明指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006779</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发恒生中国企业精明指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008408</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>517060</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华宝中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.289999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>38</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>52</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>35.41</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01398-工商银行.xlsx
+++ b/数据整理/stocks/港股/01398-工商银行.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5483,7 +5484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5494,17 +5495,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5514,14 +5535,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>38</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.289999999999999</v>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达恒生国企(QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6639</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -5530,14 +5573,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>38</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.57</v>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>151.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.1913</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -5546,13 +5611,1805 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3783</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2105</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8528</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6099</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501050</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5966</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2796</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2707</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2136</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2122</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1912</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1791</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>103.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1638</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1146</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>517080</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>517100</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159712</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>95.21</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>96.48</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>96.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008407</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>160925</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006395</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>517010</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达中证沪港深500交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>517170</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏中证沪港深500交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008408</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008973</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>47</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>38</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.289999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>38</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>52</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>35.41</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01398-工商银行.xlsx
+++ b/数据整理/stocks/港股/01398-工商银行.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7324,7 +7325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7335,17 +7336,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7355,14 +7376,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>47</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.08</v>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达恒生国企(QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>104.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5205</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -7371,14 +7414,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>38</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.289999999999999</v>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>149.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.8674</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -7387,14 +7452,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>38</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.57</v>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2908</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -7403,13 +7490,1327 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>14.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2872</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>14.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8294</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6518</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2405</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>14.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2256</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2178</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2155</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2123</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>101.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1246</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>14.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1170</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012661</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发恒益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159712</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008407</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008408</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012662</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发恒益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>29.08</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>47</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>38</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.289999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>38</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>52</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>35.41</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01398-工商银行.xlsx
+++ b/数据整理/stocks/港股/01398-工商银行.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D2" t="n">
-        <v>14.62</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>16.08</v>
+        <v>14.62</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D4" t="n">
-        <v>8.289999999999999</v>
+        <v>16.08</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>38</v>
       </c>
       <c r="D5" t="n">
-        <v>12.57</v>
+        <v>8.289999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>38</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12.57</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>52</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>35.41</v>
       </c>
     </row>
@@ -566,6 +583,1618 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>147.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6767</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达恒生国企（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4766</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0060</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6829</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5211</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3303</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2217</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2023</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1812</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1599</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝香港大盘（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝香港大盘（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>517080</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>517000</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>517100</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159712</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159711</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>95.69</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>517900</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商中证银行AH价格优选ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>96.90</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159788</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达中证港股通中国100ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008407</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>517010</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>160925</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008408</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>517170</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>95.47</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008973</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1949,7 +3578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3782,1504 +5411,6 @@
       </c>
       <c r="H48" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>510900</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达恒生国企(QDII-ETF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>71.44</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>96.10</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.9076</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>501025</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.12</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.20</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>14.28</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.1595</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>513550</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证港股通50ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>25.85</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.09</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8582</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010365</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>95.20</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>14.28</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.6283</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010010</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国投瑞银港股通6个月定期开放股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.51</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>95.04</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3923</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>513660</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华夏沪港通恒生ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>12.68</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>97.18</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3462</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>159850</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华夏恒生中国企业ETF（QDII）</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6.36</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.66</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2499</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006809</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.66</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>14.20</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2002</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>159960</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>平安港股通恒生中国企业ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>97.28</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1958</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008407</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1421</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006658</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.70</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1273</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006810</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>泰康港股通中证香港银行投资指数C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.66</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>14.20</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1179</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>501301</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.45</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1154</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>513600</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>南方恒生ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>96.94</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1143</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>159954</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>南方恒生中国企业ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>99.03</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1094</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>160717</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>95.03</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0983</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>161831</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>银华恒生国企指数（QDII-LOF）</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>84.56</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0923</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>159712</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>国泰中证港股通50ETF</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.05</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0775</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>501310</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0662</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>007107</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.20</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0570</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>241001</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>华宝海外中国混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>93.63</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0462</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>513690</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>博时恒生港股通高股息率ETF</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>96.86</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0340</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>008253</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>华宝致远混合（QDII）A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>85.18</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0331</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>006355</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>94.45</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0273</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>007751</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>91.09</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0176</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>513990</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>招商上证港股通ETF</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>98.79</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0161</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>513680</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>建信港股通恒生中国企业ETF</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>93.67</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0157</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>006778</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>广发恒生中国企业精明指数（QDII）A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>92.77</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>008254</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>华宝致远混合（QDII）C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>85.18</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>501309</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>国泰恒生港股通指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>90.32</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>006779</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>广发恒生中国企业精明指数（QDII）C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>92.77</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0053</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>166402</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>90.70</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>008408</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>007397</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>517060</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>华宝中证沪港深500ETF</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>006659</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>91.70</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>007760</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>91.09</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>007108</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数C</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>93.20</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -5314,7 +5445,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -5354,22 +5485,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>74.85</t>
+          <t>71.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.22</t>
+          <t>96.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.7545</t>
+          <t>2.9076</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -5382,36 +5513,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010761</t>
+          <t>501025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商甄选回报混合</t>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>47.86</t>
+          <t>8.12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.88</t>
+          <t>95.20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>14.28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.7995</t>
+          <t>1.1595</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -5420,36 +5551,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501025</t>
+          <t>513550</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+          <t>华泰柏瑞中证港股通50ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.26</t>
+          <t>25.85</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>99.09</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>13.76</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.6870</t>
+          <t>0.8582</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -5458,36 +5589,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>513550</t>
+          <t>010365</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证港股通50ETF</t>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>53.94</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.61</t>
+          <t>95.20</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>14.28</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.6506</t>
+          <t>0.6283</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -5496,36 +5627,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010365</t>
+          <t>010010</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+          <t>国投瑞银港股通6个月定期开放股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.19</t>
+          <t>8.51</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>95.04</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>13.76</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.9893</t>
+          <t>0.3923</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -5534,36 +5665,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002332</t>
+          <t>513660</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇丰晋信沪港深股票A</t>
+          <t>华夏沪港通恒生ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17.10</t>
+          <t>12.68</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>84.24</t>
+          <t>97.18</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.9012</t>
+          <t>0.3462</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -5572,36 +5703,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010010</t>
+          <t>159850</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国投瑞银港股通6个月定期开放股票</t>
+          <t>华夏恒生中国企业ETF（QDII）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10.37</t>
+          <t>6.36</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>87.35</t>
+          <t>92.66</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.4138</t>
+          <t>0.2499</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -5610,36 +5741,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>513660</t>
+          <t>006809</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华夏沪港通恒生ETF</t>
+          <t>泰康港股通中证香港银行投资指数A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13.02</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>96.92</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>14.20</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3424</t>
+          <t>0.2002</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -5648,36 +5779,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>159850</t>
+          <t>159960</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华夏恒生中国企业ETF（QDII）</t>
+          <t>平安港股通恒生中国企业ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8.10</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>97.28</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2859</t>
+          <t>0.1958</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -5686,36 +5817,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007291</t>
+          <t>008407</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>汇丰晋信港股通双核策略混合</t>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>11.32</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>67.19</t>
+          <t>93.94</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2570</t>
+          <t>0.1421</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -5724,36 +5855,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>159960</t>
+          <t>006658</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>平安港股通恒生中国企业ETF</t>
+          <t>财通中证香港红利等权投资指数A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>95.93</t>
+          <t>91.70</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.2438</t>
+          <t>0.1273</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -5762,36 +5893,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006809</t>
+          <t>006810</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
+          <t>泰康港股通中证香港银行投资指数C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>13.34</t>
+          <t>14.20</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1894</t>
+          <t>0.1179</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -5810,22 +5941,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>94.45</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1169</t>
+          <t>0.1154</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -5838,36 +5969,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>159954</t>
+          <t>513600</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>南方恒生中国企业ETF</t>
+          <t>南方恒生ETF</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>99.21</t>
+          <t>96.94</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1160</t>
+          <t>0.1143</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -5876,32 +6007,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>161831</t>
+          <t>159954</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>银华恒生国企指数（QDII-LOF）</t>
+          <t>南方恒生中国企业ETF</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>85.46</t>
+          <t>99.03</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1062</t>
+          <t>0.1094</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -5914,32 +6045,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>161229</t>
+          <t>160717</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>89.05</t>
+          <t>95.03</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0869</t>
+          <t>0.0983</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -5952,36 +6083,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>513600</t>
+          <t>161831</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>南方恒生ETF</t>
+          <t>银华恒生国企指数（QDII-LOF）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>97.20</t>
+          <t>84.56</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0866</t>
+          <t>0.0923</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -5990,32 +6121,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>160717</t>
+          <t>159712</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+          <t>国泰中证港股通50ETF</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>93.05</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0819</t>
+          <t>0.0775</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -6028,36 +6159,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>006810</t>
+          <t>501310</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数C</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>13.34</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0720</t>
+          <t>0.0662</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -6066,36 +6197,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>501310</t>
+          <t>007107</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+          <t>太平 MSCI 香港价值增强指数A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>93.20</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0654</t>
+          <t>0.0570</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -6114,26 +6245,26 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>93.57</t>
+          <t>93.63</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0601</t>
+          <t>0.0462</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -6142,36 +6273,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>002333</t>
+          <t>513690</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>汇丰晋信沪港深股票C</t>
+          <t>博时恒生港股通高股息率ETF</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>84.24</t>
+          <t>96.86</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0553</t>
+          <t>0.0340</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -6190,26 +6321,26 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>91.40</t>
+          <t>85.18</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0321</t>
+          <t>0.0331</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -6218,36 +6349,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>006781</t>
+          <t>006355</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>汇丰晋信港股通精选股票</t>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>94.45</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0314</t>
+          <t>0.0273</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -6256,36 +6387,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>008407</t>
+          <t>007751</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>91.09</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0276</t>
+          <t>0.0176</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -6304,26 +6435,26 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>95.30</t>
+          <t>98.79</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0237</t>
+          <t>0.0161</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -6332,36 +6463,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>006355</t>
+          <t>513680</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+          <t>建信港股通恒生中国企业ETF</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0201</t>
+          <t>0.0157</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -6370,36 +6501,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>513680</t>
+          <t>006778</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>建信港股通恒生中国企业ETF</t>
+          <t>广发恒生中国企业精明指数（QDII）A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>92.77</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0145</t>
+          <t>0.0061</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -6408,36 +6539,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>006778</t>
+          <t>008254</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>广发恒生中国企业精明指数（QDII）A</t>
+          <t>华宝致远混合（QDII）C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>85.18</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0119</t>
+          <t>0.0061</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -6446,36 +6577,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>005883</t>
+          <t>501309</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华宝港股通香港精选混合</t>
+          <t>国泰恒生港股通指数（LOF）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>88.20</t>
+          <t>90.32</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0098</t>
+          <t>0.0055</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -6484,36 +6615,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>006658</t>
+          <t>006779</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数A</t>
+          <t>广发恒生中国企业精明指数（QDII）C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>92.75</t>
+          <t>92.77</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0080</t>
+          <t>0.0053</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -6522,36 +6653,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>007397</t>
+          <t>166402</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>90.70</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0078</t>
+          <t>0.0052</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -6560,36 +6691,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>008254</t>
+          <t>008408</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>华宝致远混合（QDII）C</t>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>91.40</t>
+          <t>93.94</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.0060</t>
+          <t>0.0037</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -6598,36 +6729,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>166402</t>
+          <t>007397</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.0055</t>
+          <t>0.0034</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -6636,36 +6767,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>006779</t>
+          <t>517060</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>广发恒生中国企业精明指数（QDII）C</t>
+          <t>华宝中证沪港深500ETF</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>92.86</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.0028</t>
+          <t>0.0018</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -6674,36 +6805,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>008408</t>
+          <t>006659</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+          <t>财通中证香港红利等权投资指数C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>91.70</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0014</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -6712,12 +6843,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>006477</t>
+          <t>007760</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中邮沪港深精选混合</t>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -6727,21 +6858,21 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>82.53</t>
+          <t>91.09</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.0019</t>
+          <t>0.0012</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -6750,36 +6881,34 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>006659</t>
+          <t>007108</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数C</t>
+          <t>太平 MSCI 香港价值增强指数C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>92.75</t>
+          <t>93.20</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -6788,6 +6917,1506 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达恒生国企(QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7545</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7995</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>13.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6870</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6506</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>13.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9893</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9012</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4138</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3424</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2859</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>67.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2570</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2438</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>13.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1894</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>97.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>13.34</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008407</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>95.30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006778</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发恒生中国企业精明指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005883</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华宝港股通香港精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006779</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发恒生中国企业精明指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008408</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/01398-工商银行.xlsx
+++ b/数据整理/stocks/港股/01398-工商银行.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>41</v>
       </c>
       <c r="D2" t="n">
-        <v>11.39</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D3" t="n">
-        <v>14.62</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>16.08</v>
+        <v>14.62</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D5" t="n">
-        <v>8.289999999999999</v>
+        <v>16.08</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>12.57</v>
+        <v>8.289999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>38</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12.57</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>52</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>35.41</v>
       </c>
     </row>
@@ -639,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>159920</t>
+          <t>510900</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏恒生ETF（QDII）</t>
+          <t>易方达恒生国企（QDII-ETF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>147.66</t>
+          <t>101.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.67</t>
+          <t>96.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.6767</t>
+          <t>3.9907</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>510900</t>
+          <t>010365</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达恒生国企（QDII-ETF）</t>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>81.42</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.82</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>14.29</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.4766</t>
+          <t>0.9231</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -715,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>513550</t>
+          <t>513660</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证港股通50ETF</t>
+          <t>华夏沪港通恒生ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28.66</t>
+          <t>30.20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.20</t>
+          <t>97.65</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.0060</t>
+          <t>0.8033</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -753,36 +770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010365</t>
+          <t>513550</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+          <t>华泰柏瑞中证港股通50ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>25.76</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>98.40</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>13.88</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6829</t>
+          <t>0.7831</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -791,36 +808,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>513660</t>
+          <t>501025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华夏沪港通恒生ETF</t>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>19.23</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>96.99</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>14.29</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5211</t>
+          <t>0.3401</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -829,36 +846,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501025</t>
+          <t>159850</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+          <t>华夏恒生中国企业ETF（QDII）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>95.23</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>13.88</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3303</t>
+          <t>0.2957</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -867,36 +884,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>159954</t>
+          <t>011256</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方恒生中国企业ETF</t>
+          <t>交银施罗德鸿光一年持有期混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>19.02</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>99.36</t>
+          <t>25.22</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2217</t>
+          <t>0.2815</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -905,36 +922,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>159850</t>
+          <t>513600</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华夏恒生中国企业ETF（QDII）</t>
+          <t>南方恒生ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>7.39</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.33</t>
+          <t>99.07</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2023</t>
+          <t>0.1825</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -953,17 +970,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.89</t>
+          <t>96.43</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -972,7 +989,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -981,36 +998,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>513600</t>
+          <t>501301</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>南方恒生ETF</t>
+          <t>华宝香港大盘（LOF）A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6.08</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>97.41</t>
+          <t>94.60</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1599</t>
+          <t>0.1390</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1019,36 +1036,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>501301</t>
+          <t>012833</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华宝香港大盘（LOF）A</t>
+          <t>交银施罗德鸿信一年持有期混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>8.58</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>26.60</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1318</t>
+          <t>0.1270</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1057,36 +1074,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006810</t>
+          <t>160717</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数C</t>
+          <t>嘉实恒生中国企业指数（QDII-LOF）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>94.80</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>13.98</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1021</t>
+          <t>0.1052</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1095,36 +1112,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>160717</t>
+          <t>159954</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>嘉实恒生中国企业指数（QDII-LOF）</t>
+          <t>南方恒生中国企业ETF</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>99.94</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1012</t>
+          <t>0.1034</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1133,36 +1150,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006809</t>
+          <t>011257</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
+          <t>交银施罗德鸿光一年持有期混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>25.22</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>13.98</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0965</t>
+          <t>0.0955</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1171,36 +1188,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>006355</t>
+          <t>161831</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华宝香港大盘（LOF）C</t>
+          <t>银华恒生国企指数（QDII-LOF）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>84.03</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0742</t>
+          <t>0.0857</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1209,36 +1226,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>164705</t>
+          <t>006810</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>汇添富恒生指数（QDII-LOF）A</t>
+          <t>泰康港股通中证香港银行投资指数C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>90.36</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>14.21</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0633</t>
+          <t>0.0824</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1247,36 +1264,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>007107</t>
+          <t>006809</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>太平 MSCI 香港价值增强指数A</t>
+          <t>泰康港股通中证香港银行投资指数A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>90.37</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>14.21</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0471</t>
+          <t>0.0782</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1285,36 +1302,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>517080</t>
+          <t>007107</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>汇添富中证沪港深500ETF</t>
+          <t>太平 MSCI 香港价值增强指数A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>91.40</t>
+          <t>92.16</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0453</t>
+          <t>0.0511</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1323,36 +1340,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>517000</t>
+          <t>012834</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>银华中证沪港深500ETF</t>
+          <t>交银施罗德鸿信一年持有期混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>26.60</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0439</t>
+          <t>0.0460</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1371,22 +1388,22 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>93.50</t>
+          <t>94.81</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0409</t>
+          <t>0.0442</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1399,36 +1416,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>517100</t>
+          <t>006355</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>富国中证沪港深500ETF</t>
+          <t>华宝香港大盘（LOF）C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>98.78</t>
+          <t>94.60</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0310</t>
+          <t>0.0398</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1437,36 +1454,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>159712</t>
+          <t>517900</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>国泰中证港股通50ETF</t>
+          <t>招商中证银行AH价格优选ETF</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>94.96</t>
+          <t>98.38</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0214</t>
+          <t>0.0292</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1475,36 +1492,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>159711</t>
+          <t>013248</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华夏中证港股通50ETF</t>
+          <t>交银鸿泰一年持有期混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>95.69</t>
+          <t>30.45</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0193</t>
+          <t>0.0286</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -1513,32 +1530,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>517900</t>
+          <t>010890</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>招商中证银行AH价格优选ETF</t>
+          <t>交银施罗德鸿福六个月持有期混合A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>96.90</t>
+          <t>28.26</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>5.66</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0170</t>
+          <t>0.0256</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1551,36 +1568,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>513990</t>
+          <t>007751</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>招商上证港股通ETF</t>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>99.00</t>
+          <t>91.50</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0169</t>
+          <t>0.0237</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1589,36 +1606,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>159788</t>
+          <t>159712</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>易方达中证港股通中国100ETF</t>
+          <t>国泰中证港股通50ETF</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>97.27</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0152</t>
+          <t>0.0235</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -1627,36 +1644,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>008407</t>
+          <t>513990</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+          <t>招商上证港股通ETF</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>99.00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0103</t>
+          <t>0.0185</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -1665,36 +1682,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>010789</t>
+          <t>159788</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>汇添富恒生指数（QDII-LOF）C</t>
+          <t>易方达中证港股通中国100ETF</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>90.36</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0099</t>
+          <t>0.0125</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -1703,36 +1720,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>513680</t>
+          <t>008407</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>建信港股通恒生中国企业ETF</t>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>92.03</t>
+          <t>94.63</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0099</t>
+          <t>0.0106</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -1741,36 +1758,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>006658</t>
+          <t>159711</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数A</t>
+          <t>华夏中证港股通50ETF</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>88.79</t>
+          <t>96.70</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0066</t>
+          <t>0.0104</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -1779,36 +1796,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>501309</t>
+          <t>006658</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>国泰恒生港股通指数（LOF）</t>
+          <t>财通中证香港红利等权投资指数A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>89.84</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0051</t>
+          <t>0.0065</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1817,36 +1834,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>517010</t>
+          <t>501309</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>易方达中证沪港深500ETF</t>
+          <t>国泰恒生港股通指数（LOF）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>93.88</t>
+          <t>92.87</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0039</t>
+          <t>0.0055</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -1870,12 +1887,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>82.44</t>
+          <t>77.58</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1893,36 +1910,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>160925</t>
+          <t>007397</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>大成中华沪深港300指数（LOF）A</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>94.81</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.0027</t>
+          <t>0.0032</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -1931,32 +1948,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>008408</t>
+          <t>013249</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+          <t>交银鸿泰一年持有期混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>30.45</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.0020</t>
+          <t>0.0027</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -1969,36 +1986,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>517170</t>
+          <t>008408</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>华夏中证沪港深500ETF</t>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>95.47</t>
+          <t>94.63</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.0020</t>
+          <t>0.0024</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -2007,32 +2024,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>006659</t>
+          <t>007760</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数C</t>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>88.79</t>
+          <t>91.50</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.0020</t>
+          <t>0.0024</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -2045,12 +2062,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>007397</t>
+          <t>006659</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+          <t>财通中证香港红利等权投资指数C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2060,21 +2077,21 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>93.50</t>
+          <t>89.84</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.0018</t>
+          <t>0.0019</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2093,22 +2110,22 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>82.44</t>
+          <t>77.58</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -2121,36 +2138,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>008973</t>
+          <t>010891</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>大成中华沪深港300指数（LOF）C</t>
+          <t>交银施罗德鸿福六个月持有期混合C</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>28.26</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.0007</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -2174,19 +2191,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>90.37</t>
+          <t>92.16</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2195,6 +2212,1618 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>147.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6767</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达恒生国企（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4766</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0060</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6829</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5211</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3303</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2217</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2023</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1812</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1599</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝香港大盘（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝香港大盘（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>517080</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>517000</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>517100</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159712</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159711</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>95.69</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>517900</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商中证银行AH价格优选ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>96.90</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159788</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达中证港股通中国100ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008407</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>517010</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>160925</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008408</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>517170</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>95.47</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008973</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3578,7 +5207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5411,1504 +7040,6 @@
       </c>
       <c r="H48" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>510900</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达恒生国企(QDII-ETF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>71.44</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>96.10</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.9076</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>501025</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.12</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.20</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>14.28</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.1595</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>513550</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证港股通50ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>25.85</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.09</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8582</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010365</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>95.20</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>14.28</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.6283</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010010</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国投瑞银港股通6个月定期开放股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.51</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>95.04</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3923</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>513660</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华夏沪港通恒生ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>12.68</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>97.18</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3462</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>159850</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华夏恒生中国企业ETF（QDII）</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6.36</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.66</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2499</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006809</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.66</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>14.20</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2002</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>159960</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>平安港股通恒生中国企业ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>97.28</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1958</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008407</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1421</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006658</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.70</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1273</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006810</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>泰康港股通中证香港银行投资指数C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.66</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>14.20</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1179</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>501301</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.45</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1154</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>513600</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>南方恒生ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>96.94</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1143</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>159954</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>南方恒生中国企业ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>99.03</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1094</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>160717</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>95.03</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0983</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>161831</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>银华恒生国企指数（QDII-LOF）</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>84.56</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0923</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>159712</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>国泰中证港股通50ETF</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.05</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0775</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>501310</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0662</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>007107</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.20</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0570</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>241001</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>华宝海外中国混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>93.63</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0462</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>513690</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>博时恒生港股通高股息率ETF</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>96.86</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0340</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>008253</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>华宝致远混合（QDII）A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>85.18</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0331</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>006355</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>94.45</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0273</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>007751</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>91.09</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0176</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>513990</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>招商上证港股通ETF</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>98.79</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0161</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>513680</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>建信港股通恒生中国企业ETF</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>93.67</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0157</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>006778</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>广发恒生中国企业精明指数（QDII）A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>92.77</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>008254</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>华宝致远混合（QDII）C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>85.18</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>501309</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>国泰恒生港股通指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>90.32</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>006779</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>广发恒生中国企业精明指数（QDII）C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>92.77</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0053</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>166402</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>90.70</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>008408</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>007397</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>517060</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>华宝中证沪港深500ETF</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>006659</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>91.70</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>007760</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>91.09</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>007108</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数C</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>93.20</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -6943,7 +7074,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -6983,22 +7114,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>74.85</t>
+          <t>71.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.22</t>
+          <t>96.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.7545</t>
+          <t>2.9076</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -7011,36 +7142,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010761</t>
+          <t>501025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商甄选回报混合</t>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>47.86</t>
+          <t>8.12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.88</t>
+          <t>95.20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>14.28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.7995</t>
+          <t>1.1595</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -7049,36 +7180,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501025</t>
+          <t>513550</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+          <t>华泰柏瑞中证港股通50ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.26</t>
+          <t>25.85</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>99.09</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>13.76</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.6870</t>
+          <t>0.8582</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -7087,36 +7218,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>513550</t>
+          <t>010365</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证港股通50ETF</t>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>53.94</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.61</t>
+          <t>95.20</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>14.28</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.6506</t>
+          <t>0.6283</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -7125,36 +7256,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010365</t>
+          <t>010010</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+          <t>国投瑞银港股通6个月定期开放股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.19</t>
+          <t>8.51</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>95.04</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>13.76</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.9893</t>
+          <t>0.3923</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -7163,36 +7294,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002332</t>
+          <t>513660</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇丰晋信沪港深股票A</t>
+          <t>华夏沪港通恒生ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17.10</t>
+          <t>12.68</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>84.24</t>
+          <t>97.18</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.9012</t>
+          <t>0.3462</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -7201,36 +7332,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010010</t>
+          <t>159850</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国投瑞银港股通6个月定期开放股票</t>
+          <t>华夏恒生中国企业ETF（QDII）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10.37</t>
+          <t>6.36</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>87.35</t>
+          <t>92.66</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.4138</t>
+          <t>0.2499</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -7239,36 +7370,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>513660</t>
+          <t>006809</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华夏沪港通恒生ETF</t>
+          <t>泰康港股通中证香港银行投资指数A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13.02</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>96.92</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>14.20</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3424</t>
+          <t>0.2002</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -7277,36 +7408,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>159850</t>
+          <t>159960</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华夏恒生中国企业ETF（QDII）</t>
+          <t>平安港股通恒生中国企业ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8.10</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>97.28</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2859</t>
+          <t>0.1958</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -7315,36 +7446,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007291</t>
+          <t>008407</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>汇丰晋信港股通双核策略混合</t>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>11.32</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>67.19</t>
+          <t>93.94</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2570</t>
+          <t>0.1421</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -7353,36 +7484,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>159960</t>
+          <t>006658</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>平安港股通恒生中国企业ETF</t>
+          <t>财通中证香港红利等权投资指数A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>95.93</t>
+          <t>91.70</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.2438</t>
+          <t>0.1273</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -7391,36 +7522,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006809</t>
+          <t>006810</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
+          <t>泰康港股通中证香港银行投资指数C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>13.34</t>
+          <t>14.20</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1894</t>
+          <t>0.1179</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -7439,22 +7570,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>94.45</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1169</t>
+          <t>0.1154</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -7467,36 +7598,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>159954</t>
+          <t>513600</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>南方恒生中国企业ETF</t>
+          <t>南方恒生ETF</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>99.21</t>
+          <t>96.94</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1160</t>
+          <t>0.1143</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -7505,32 +7636,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>161831</t>
+          <t>159954</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>银华恒生国企指数（QDII-LOF）</t>
+          <t>南方恒生中国企业ETF</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>85.46</t>
+          <t>99.03</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1062</t>
+          <t>0.1094</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -7543,32 +7674,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>161229</t>
+          <t>160717</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>89.05</t>
+          <t>95.03</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0869</t>
+          <t>0.0983</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -7581,36 +7712,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>513600</t>
+          <t>161831</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>南方恒生ETF</t>
+          <t>银华恒生国企指数（QDII-LOF）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>97.20</t>
+          <t>84.56</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0866</t>
+          <t>0.0923</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -7619,32 +7750,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>160717</t>
+          <t>159712</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+          <t>国泰中证港股通50ETF</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>93.05</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0819</t>
+          <t>0.0775</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -7657,36 +7788,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>006810</t>
+          <t>501310</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数C</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>13.34</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0720</t>
+          <t>0.0662</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -7695,36 +7826,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>501310</t>
+          <t>007107</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+          <t>太平 MSCI 香港价值增强指数A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>93.20</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0654</t>
+          <t>0.0570</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -7743,26 +7874,26 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>93.57</t>
+          <t>93.63</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0601</t>
+          <t>0.0462</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -7771,36 +7902,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>002333</t>
+          <t>513690</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>汇丰晋信沪港深股票C</t>
+          <t>博时恒生港股通高股息率ETF</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>84.24</t>
+          <t>96.86</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0553</t>
+          <t>0.0340</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -7819,26 +7950,26 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>91.40</t>
+          <t>85.18</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0321</t>
+          <t>0.0331</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -7847,36 +7978,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>006781</t>
+          <t>006355</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>汇丰晋信港股通精选股票</t>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>94.45</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0314</t>
+          <t>0.0273</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -7885,36 +8016,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>008407</t>
+          <t>007751</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>91.09</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0276</t>
+          <t>0.0176</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -7933,26 +8064,26 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>95.30</t>
+          <t>98.79</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0237</t>
+          <t>0.0161</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -7961,36 +8092,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>006355</t>
+          <t>513680</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+          <t>建信港股通恒生中国企业ETF</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0201</t>
+          <t>0.0157</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -7999,36 +8130,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>513680</t>
+          <t>006778</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>建信港股通恒生中国企业ETF</t>
+          <t>广发恒生中国企业精明指数（QDII）A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>92.77</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0145</t>
+          <t>0.0061</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -8037,36 +8168,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>006778</t>
+          <t>008254</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>广发恒生中国企业精明指数（QDII）A</t>
+          <t>华宝致远混合（QDII）C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>85.18</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0119</t>
+          <t>0.0061</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -8075,36 +8206,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>005883</t>
+          <t>501309</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华宝港股通香港精选混合</t>
+          <t>国泰恒生港股通指数（LOF）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>88.20</t>
+          <t>90.32</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0098</t>
+          <t>0.0055</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -8113,36 +8244,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>006658</t>
+          <t>006779</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数A</t>
+          <t>广发恒生中国企业精明指数（QDII）C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>92.75</t>
+          <t>92.77</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0080</t>
+          <t>0.0053</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -8151,36 +8282,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>007397</t>
+          <t>166402</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>90.70</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0078</t>
+          <t>0.0052</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -8189,36 +8320,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>008254</t>
+          <t>008408</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>华宝致远混合（QDII）C</t>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>91.40</t>
+          <t>93.94</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.0060</t>
+          <t>0.0037</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -8227,36 +8358,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>166402</t>
+          <t>007397</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.0055</t>
+          <t>0.0034</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -8265,36 +8396,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>006779</t>
+          <t>517060</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>广发恒生中国企业精明指数（QDII）C</t>
+          <t>华宝中证沪港深500ETF</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>92.86</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.0028</t>
+          <t>0.0018</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -8303,36 +8434,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>008408</t>
+          <t>006659</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+          <t>财通中证香港红利等权投资指数C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>91.70</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0014</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -8341,12 +8472,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>006477</t>
+          <t>007760</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中邮沪港深精选混合</t>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -8356,21 +8487,21 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>82.53</t>
+          <t>91.09</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.0019</t>
+          <t>0.0012</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -8379,36 +8510,34 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>006659</t>
+          <t>007108</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数C</t>
+          <t>太平 MSCI 香港价值增强指数C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>92.75</t>
+          <t>93.20</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -8417,6 +8546,1506 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达恒生国企(QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7545</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7995</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>13.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6870</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6506</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>13.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9893</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9012</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4138</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3424</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2859</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>67.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2570</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2438</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>13.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1894</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>97.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>13.34</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008407</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>95.30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006778</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发恒生中国企业精明指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005883</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华宝港股通香港精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006779</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发恒生中国企业精明指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008408</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
